--- a/PunchIn_System/PunchIn_System/PunchIn System/PunchIn System/bin/Debug/net6.0-windows/excel/活動列表.xlsx
+++ b/PunchIn_System/PunchIn_System/PunchIn System/PunchIn System/bin/Debug/net6.0-windows/excel/活動列表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rex\Downloads\PunchIn_System\PunchIn System\PunchIn System\bin\Debug\net6.0-windows\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my-project_b\PunchIn_System\PunchIn_System\PunchIn System\PunchIn System\bin\Debug\net6.0-windows\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
